--- a/individual_results/harvard/517.xlsx
+++ b/individual_results/harvard/517.xlsx
@@ -519,7 +519,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -537,7 +537,7 @@
         <v>0.125</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -565,7 +565,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -583,7 +583,7 @@
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -609,7 +609,7 @@
         <v>0.5</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
@@ -623,7 +623,7 @@
         <v>0.2222222222222222</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
@@ -647,7 +647,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="F5" t="n">
-        <v>1.428571428571429</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
@@ -661,7 +661,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="L5" t="n">
-        <v>1.428571428571429</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
@@ -687,7 +687,7 @@
         <v>0.5</v>
       </c>
       <c r="F6" t="n">
-        <v>1.630929753571458</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0.3868528072345416</v>
       </c>
       <c r="L6" t="n">
-        <v>1.130929753571458</v>
+        <v>0.6309297535714575</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -909,7 +909,7 @@
         <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
@@ -923,7 +923,7 @@
         <v>8</v>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
